--- a/natmiOut/OldD7/LR-pairs_lrc2p/Bmp8a-Bmpr2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Bmp8a-Bmpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Bmp8a</t>
   </si>
   <si>
     <t>Bmpr2</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.19761926707763</v>
+        <v>0.375721</v>
       </c>
       <c r="H2">
-        <v>0.19761926707763</v>
+        <v>1.127163</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.3470687401563893</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.3470687401563892</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.1803899858649</v>
+        <v>43.69574966666666</v>
       </c>
       <c r="N2">
-        <v>43.1803899858649</v>
+        <v>131.087249</v>
       </c>
       <c r="O2">
-        <v>0.3410641196217529</v>
+        <v>0.3365063034544351</v>
       </c>
       <c r="P2">
-        <v>0.3410641196217529</v>
+        <v>0.3365063034544351</v>
       </c>
       <c r="Q2">
-        <v>8.533277021132855</v>
+        <v>16.41741076050966</v>
       </c>
       <c r="R2">
-        <v>8.533277021132855</v>
+        <v>147.756696844587</v>
       </c>
       <c r="S2">
-        <v>0.3410641196217529</v>
+        <v>0.1167908187946144</v>
       </c>
       <c r="T2">
-        <v>0.3410641196217529</v>
+        <v>0.1167908187946144</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.19761926707763</v>
+        <v>0.375721</v>
       </c>
       <c r="H3">
-        <v>0.19761926707763</v>
+        <v>1.127163</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.3470687401563893</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.3470687401563892</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.7330820376084</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N3">
-        <v>46.7330820376084</v>
+        <v>140.44867</v>
       </c>
       <c r="O3">
-        <v>0.3691253712063667</v>
+        <v>0.3605374521727266</v>
       </c>
       <c r="P3">
-        <v>0.3691253712063667</v>
+        <v>0.3605374521727267</v>
       </c>
       <c r="Q3">
-        <v>9.235357420550928</v>
+        <v>17.58983824702333</v>
       </c>
       <c r="R3">
-        <v>9.235357420550928</v>
+        <v>158.30854422321</v>
       </c>
       <c r="S3">
-        <v>0.3691253712063667</v>
+        <v>0.1251312793047827</v>
       </c>
       <c r="T3">
-        <v>0.3691253712063667</v>
+        <v>0.1251312793047827</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.19761926707763</v>
+        <v>0.375721</v>
       </c>
       <c r="H4">
-        <v>0.19761926707763</v>
+        <v>1.127163</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.3470687401563893</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.3470687401563892</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.3729195252267</v>
+        <v>18.08903066666667</v>
       </c>
       <c r="N4">
-        <v>16.3729195252267</v>
+        <v>54.26709200000001</v>
       </c>
       <c r="O4">
-        <v>0.1293229492678794</v>
+        <v>0.1393058338430899</v>
       </c>
       <c r="P4">
-        <v>0.1293229492678794</v>
+        <v>0.1393058338430899</v>
       </c>
       <c r="Q4">
-        <v>3.235604356496318</v>
+        <v>6.796428691110667</v>
       </c>
       <c r="R4">
-        <v>3.235604356496318</v>
+        <v>61.167858219996</v>
       </c>
       <c r="S4">
-        <v>0.1293229492678794</v>
+        <v>0.0483487002483565</v>
       </c>
       <c r="T4">
-        <v>0.1293229492678794</v>
+        <v>0.0483487002483565</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,805 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.375721</v>
+      </c>
+      <c r="H5">
+        <v>1.127163</v>
+      </c>
+      <c r="I5">
+        <v>0.3470687401563893</v>
+      </c>
+      <c r="J5">
+        <v>0.3470687401563892</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>21.25020333333334</v>
+      </c>
+      <c r="N5">
+        <v>63.75061</v>
+      </c>
+      <c r="O5">
+        <v>0.1636504105297484</v>
+      </c>
+      <c r="P5">
+        <v>0.1636504105297484</v>
+      </c>
+      <c r="Q5">
+        <v>7.984147646603334</v>
+      </c>
+      <c r="R5">
+        <v>71.85732881942999</v>
+      </c>
+      <c r="S5">
+        <v>0.05679794180863566</v>
+      </c>
+      <c r="T5">
+        <v>0.05679794180863566</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.3064436666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.919331</v>
+      </c>
+      <c r="I6">
+        <v>0.2830744550315381</v>
+      </c>
+      <c r="J6">
+        <v>0.283074455031538</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>43.69574966666666</v>
+      </c>
+      <c r="N6">
+        <v>131.087249</v>
+      </c>
+      <c r="O6">
+        <v>0.3365063034544351</v>
+      </c>
+      <c r="P6">
+        <v>0.3365063034544351</v>
+      </c>
+      <c r="Q6">
+        <v>13.39028574560211</v>
+      </c>
+      <c r="R6">
+        <v>120.512571710419</v>
+      </c>
+      <c r="S6">
+        <v>0.09525633846504157</v>
+      </c>
+      <c r="T6">
+        <v>0.09525633846504157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.3064436666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.919331</v>
+      </c>
+      <c r="I7">
+        <v>0.2830744550315381</v>
+      </c>
+      <c r="J7">
+        <v>0.283074455031538</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>46.81622333333333</v>
+      </c>
+      <c r="N7">
+        <v>140.44867</v>
+      </c>
+      <c r="O7">
+        <v>0.3605374521727266</v>
+      </c>
+      <c r="P7">
+        <v>0.3605374521727267</v>
+      </c>
+      <c r="Q7">
+        <v>14.34653513775222</v>
+      </c>
+      <c r="R7">
+        <v>129.11881623977</v>
+      </c>
+      <c r="S7">
+        <v>0.1020589427922538</v>
+      </c>
+      <c r="T7">
+        <v>0.1020589427922538</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.3064436666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.919331</v>
+      </c>
+      <c r="I8">
+        <v>0.2830744550315381</v>
+      </c>
+      <c r="J8">
+        <v>0.283074455031538</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>18.08903066666667</v>
+      </c>
+      <c r="N8">
+        <v>54.26709200000001</v>
+      </c>
+      <c r="O8">
+        <v>0.1393058338430899</v>
+      </c>
+      <c r="P8">
+        <v>0.1393058338430899</v>
+      </c>
+      <c r="Q8">
+        <v>5.543268883939112</v>
+      </c>
+      <c r="R8">
+        <v>49.88941995545201</v>
+      </c>
+      <c r="S8">
+        <v>0.03943392299784666</v>
+      </c>
+      <c r="T8">
+        <v>0.03943392299784666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.19761926707763</v>
-      </c>
-      <c r="H5">
-        <v>0.19761926707763</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>20.3185120505201</v>
-      </c>
-      <c r="N5">
-        <v>20.3185120505201</v>
-      </c>
-      <c r="O5">
-        <v>0.1604875599040009</v>
-      </c>
-      <c r="P5">
-        <v>0.1604875599040009</v>
-      </c>
-      <c r="Q5">
-        <v>4.015329459531775</v>
-      </c>
-      <c r="R5">
-        <v>4.015329459531775</v>
-      </c>
-      <c r="S5">
-        <v>0.1604875599040009</v>
-      </c>
-      <c r="T5">
-        <v>0.1604875599040009</v>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.3064436666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.919331</v>
+      </c>
+      <c r="I9">
+        <v>0.2830744550315381</v>
+      </c>
+      <c r="J9">
+        <v>0.283074455031538</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>21.25020333333334</v>
+      </c>
+      <c r="N9">
+        <v>63.75061</v>
+      </c>
+      <c r="O9">
+        <v>0.1636504105297484</v>
+      </c>
+      <c r="P9">
+        <v>0.1636504105297484</v>
+      </c>
+      <c r="Q9">
+        <v>6.51199022687889</v>
+      </c>
+      <c r="R9">
+        <v>58.60791204191001</v>
+      </c>
+      <c r="S9">
+        <v>0.04632525077639599</v>
+      </c>
+      <c r="T9">
+        <v>0.04632525077639599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.2182253333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.654676</v>
+      </c>
+      <c r="I10">
+        <v>0.2015835992936464</v>
+      </c>
+      <c r="J10">
+        <v>0.2015835992936463</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>43.69574966666666</v>
+      </c>
+      <c r="N10">
+        <v>131.087249</v>
+      </c>
+      <c r="O10">
+        <v>0.3365063034544351</v>
+      </c>
+      <c r="P10">
+        <v>0.3365063034544351</v>
+      </c>
+      <c r="Q10">
+        <v>9.535519536258223</v>
+      </c>
+      <c r="R10">
+        <v>85.819675826324</v>
+      </c>
+      <c r="S10">
+        <v>0.06783415183534501</v>
+      </c>
+      <c r="T10">
+        <v>0.067834151835345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.2182253333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.654676</v>
+      </c>
+      <c r="I11">
+        <v>0.2015835992936464</v>
+      </c>
+      <c r="J11">
+        <v>0.2015835992936463</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>46.81622333333333</v>
+      </c>
+      <c r="N11">
+        <v>140.44867</v>
+      </c>
+      <c r="O11">
+        <v>0.3605374521727266</v>
+      </c>
+      <c r="P11">
+        <v>0.3605374521727267</v>
+      </c>
+      <c r="Q11">
+        <v>10.21648594232444</v>
+      </c>
+      <c r="R11">
+        <v>91.94837348092</v>
+      </c>
+      <c r="S11">
+        <v>0.07267843728913913</v>
+      </c>
+      <c r="T11">
+        <v>0.07267843728913911</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.2182253333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.654676</v>
+      </c>
+      <c r="I12">
+        <v>0.2015835992936464</v>
+      </c>
+      <c r="J12">
+        <v>0.2015835992936463</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>18.08903066666667</v>
+      </c>
+      <c r="N12">
+        <v>54.26709200000001</v>
+      </c>
+      <c r="O12">
+        <v>0.1393058338430899</v>
+      </c>
+      <c r="P12">
+        <v>0.1393058338430899</v>
+      </c>
+      <c r="Q12">
+        <v>3.947484746910223</v>
+      </c>
+      <c r="R12">
+        <v>35.527362722192</v>
+      </c>
+      <c r="S12">
+        <v>0.02808177138869271</v>
+      </c>
+      <c r="T12">
+        <v>0.02808177138869271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.2182253333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.654676</v>
+      </c>
+      <c r="I13">
+        <v>0.2015835992936464</v>
+      </c>
+      <c r="J13">
+        <v>0.2015835992936463</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>21.25020333333334</v>
+      </c>
+      <c r="N13">
+        <v>63.75061</v>
+      </c>
+      <c r="O13">
+        <v>0.1636504105297484</v>
+      </c>
+      <c r="P13">
+        <v>0.1636504105297484</v>
+      </c>
+      <c r="Q13">
+        <v>4.637332705817778</v>
+      </c>
+      <c r="R13">
+        <v>41.73599435236</v>
+      </c>
+      <c r="S13">
+        <v>0.03298923878046952</v>
+      </c>
+      <c r="T13">
+        <v>0.03298923878046952</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.182165</v>
+      </c>
+      <c r="H14">
+        <v>0.546495</v>
+      </c>
+      <c r="I14">
+        <v>0.1682732055184263</v>
+      </c>
+      <c r="J14">
+        <v>0.1682732055184263</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>43.69574966666666</v>
+      </c>
+      <c r="N14">
+        <v>131.087249</v>
+      </c>
+      <c r="O14">
+        <v>0.3365063034544351</v>
+      </c>
+      <c r="P14">
+        <v>0.3365063034544351</v>
+      </c>
+      <c r="Q14">
+        <v>7.959836238028332</v>
+      </c>
+      <c r="R14">
+        <v>71.63852614225499</v>
+      </c>
+      <c r="S14">
+        <v>0.05662499435943408</v>
+      </c>
+      <c r="T14">
+        <v>0.05662499435943408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.182165</v>
+      </c>
+      <c r="H15">
+        <v>0.546495</v>
+      </c>
+      <c r="I15">
+        <v>0.1682732055184263</v>
+      </c>
+      <c r="J15">
+        <v>0.1682732055184263</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>46.81622333333333</v>
+      </c>
+      <c r="N15">
+        <v>140.44867</v>
+      </c>
+      <c r="O15">
+        <v>0.3605374521727266</v>
+      </c>
+      <c r="P15">
+        <v>0.3605374521727267</v>
+      </c>
+      <c r="Q15">
+        <v>8.528277323516667</v>
+      </c>
+      <c r="R15">
+        <v>76.75449591164998</v>
+      </c>
+      <c r="S15">
+        <v>0.06066879278655102</v>
+      </c>
+      <c r="T15">
+        <v>0.06066879278655102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.182165</v>
+      </c>
+      <c r="H16">
+        <v>0.546495</v>
+      </c>
+      <c r="I16">
+        <v>0.1682732055184263</v>
+      </c>
+      <c r="J16">
+        <v>0.1682732055184263</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>18.08903066666667</v>
+      </c>
+      <c r="N16">
+        <v>54.26709200000001</v>
+      </c>
+      <c r="O16">
+        <v>0.1393058338430899</v>
+      </c>
+      <c r="P16">
+        <v>0.1393058338430899</v>
+      </c>
+      <c r="Q16">
+        <v>3.295188271393334</v>
+      </c>
+      <c r="R16">
+        <v>29.65669444254</v>
+      </c>
+      <c r="S16">
+        <v>0.02344143920819401</v>
+      </c>
+      <c r="T16">
+        <v>0.02344143920819401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.182165</v>
+      </c>
+      <c r="H17">
+        <v>0.546495</v>
+      </c>
+      <c r="I17">
+        <v>0.1682732055184263</v>
+      </c>
+      <c r="J17">
+        <v>0.1682732055184263</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>21.25020333333334</v>
+      </c>
+      <c r="N17">
+        <v>63.75061</v>
+      </c>
+      <c r="O17">
+        <v>0.1636504105297484</v>
+      </c>
+      <c r="P17">
+        <v>0.1636504105297484</v>
+      </c>
+      <c r="Q17">
+        <v>3.871043290216667</v>
+      </c>
+      <c r="R17">
+        <v>34.83938961195</v>
+      </c>
+      <c r="S17">
+        <v>0.02753797916424718</v>
+      </c>
+      <c r="T17">
+        <v>0.02753797916424718</v>
       </c>
     </row>
   </sheetData>
